--- a/CS320 Excel Works.xlsx
+++ b/CS320 Excel Works.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metinkaraca/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684AF398-D4A7-AE47-9731-3B2494EF4F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8A9B5-47D0-8D47-80D7-1DBC3510E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1960" windowWidth="30240" windowHeight="18880" xr2:uid="{989A74A3-1140-104B-93D7-3DED2FDBFEEC}"/>
+    <workbookView xWindow="1400" yWindow="2400" windowWidth="14800" windowHeight="16400" xr2:uid="{989A74A3-1140-104B-93D7-3DED2FDBFEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Risk</t>
   </si>
@@ -86,18 +86,6 @@
     <t>Metin</t>
   </si>
   <si>
-    <t>Software Development Plan (SDP) - T1</t>
-  </si>
-  <si>
-    <t>SDP version-2 - T2</t>
-  </si>
-  <si>
-    <t>SRS + STP - T3</t>
-  </si>
-  <si>
-    <t>SRS version-2 and STP version-2 - T4</t>
-  </si>
-  <si>
     <t>Software Design Document (SDD) - T5</t>
   </si>
   <si>
@@ -146,17 +134,77 @@
     <t>Serious</t>
   </si>
   <si>
+    <t>The size of the software is underestimated.</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Tolerable</t>
+  </si>
+  <si>
     <t>The IP address may not be accessed stably
- on the school's Internet</t>
-  </si>
-  <si>
-    <t>The size of the software is underestimated.</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Tolerable</t>
+ on the school's Internet.</t>
+  </si>
+  <si>
+    <t>Can't save the datas to the database.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Programming languages can't communicate with each other.</t>
+  </si>
+  <si>
+    <t>Possible delay between player-controller.</t>
+  </si>
+  <si>
+    <t>STR + SAR + Demo - T10</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>We would like to use mobile hotspot instead of campus internet.</t>
+  </si>
+  <si>
+    <t>Staff illness</t>
+  </si>
+  <si>
+    <t>Reorganize team so that there is more overlap of work and
+people therefore understand each other’s jobs.</t>
+  </si>
+  <si>
+    <t>We need exact 3 computers. If something happens to computers,
+we will substitute the computers.</t>
+  </si>
+  <si>
+    <t>Network
+problem</t>
+  </si>
+  <si>
+    <t>Defective
+components</t>
+  </si>
+  <si>
+    <t>Database
+problem</t>
+  </si>
+  <si>
+    <t>In case of not integrating datas to the database, we will use CSV 
+to save the datas.</t>
+  </si>
+  <si>
+    <t>Planning - T1</t>
+  </si>
+  <si>
+    <t>Requirement Analysis - T2</t>
+  </si>
+  <si>
+    <t>Design - T3</t>
+  </si>
+  <si>
+    <t>Implementation - T4</t>
   </si>
 </sst>
 </file>
@@ -220,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -337,7 +385,162 @@
     </border>
     <border>
       <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
         <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
       </left>
       <right style="hair">
         <color theme="1"/>
@@ -354,27 +557,9 @@
       <left style="hair">
         <color theme="0"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0"/>
-      </left>
-      <right/>
+      <right style="dotted">
+        <color theme="0"/>
+      </right>
       <top style="hair">
         <color theme="0"/>
       </top>
@@ -384,20 +569,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="0"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="hair">
         <color theme="1"/>
       </right>
@@ -408,9 +580,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left/>
+      <right style="hair">
         <color theme="1"/>
-      </left>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color theme="1"/>
       </right>
@@ -421,112 +604,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
-        <color theme="1"/>
+        <color theme="0"/>
       </left>
-      <right style="medium">
+      <right style="dotted">
         <color theme="0"/>
       </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0"/>
-      </left>
-      <right style="hair">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,91 +630,130 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF52882-E7DD-9B48-97F8-302DEAAB3676}">
   <dimension ref="C5:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1754,7 +1887,8 @@
     <col min="4" max="4" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="71" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
@@ -1762,328 +1896,415 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="I5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:17" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="11"/>
-      <c r="D8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="43">
+    <row r="8" spans="3:17" ht="35" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+      <c r="D8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="33">
         <v>7</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="37">
         <v>7</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="33"/>
       <c r="Q8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C9" s="11"/>
-      <c r="D9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="E9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>7</v>
       </c>
-      <c r="O9" s="28" t="s">
-        <v>26</v>
+      <c r="O9" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30">
+    <row r="10" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+      <c r="D10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22">
         <v>14</v>
       </c>
-      <c r="O10" s="30" t="s">
-        <v>27</v>
+      <c r="O10" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="Q10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C11" s="11"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="28"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="28">
+    <row r="11" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C11" s="10"/>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="20">
         <v>7</v>
       </c>
-      <c r="O11" s="28" t="s">
-        <v>28</v>
+      <c r="O11" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C12" s="11"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34">
+      <c r="J12" s="14"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26">
         <v>14</v>
       </c>
-      <c r="O12" s="34" t="s">
-        <v>29</v>
+      <c r="O12" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C13" s="11"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="28"/>
+    <row r="13" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+      <c r="D13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="28">
+      <c r="J13" s="15"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="20">
         <v>7</v>
       </c>
-      <c r="O13" s="28" t="s">
-        <v>30</v>
+      <c r="O13" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30">
+    <row r="14" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+      <c r="D14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22">
         <v>7</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="10"/>
+      <c r="D15" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="43" t="s">
         <v>31</v>
       </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="20">
+        <v>3</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C15" s="11"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="28">
+    <row r="16" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" s="10"/>
+      <c r="D16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="22">
         <v>3</v>
       </c>
-      <c r="O15" s="28" t="s">
+      <c r="O16" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" s="10"/>
+      <c r="D17" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>31</v>
       </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="20">
+        <v>7</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C16" s="11"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="30">
-        <v>3</v>
-      </c>
-      <c r="O16" s="30" t="s">
+    <row r="18" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="10"/>
+      <c r="D18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="28"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="28">
-        <v>7</v>
-      </c>
-      <c r="O17" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="11"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="42" t="s">
+        <v>40</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="28"/>
+    <row r="19" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C19" s="10"/>
+      <c r="D19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="2"/>
       <c r="M19" s="8"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="10"/>
+    <row r="20" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+      <c r="D20" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+    <row r="21" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="23"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K40" s="1"/>
